--- a/20180126_SmartCut/LinearCut/out/first_run IDA #8 v1.0.xlsx
+++ b/20180126_SmartCut/LinearCut/out/first_run IDA #8 v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyran/Documents/GitHub/VbaProject/20180126_SmartCut/LinearCut/out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B542CE-4643-6E4A-83F5-AF28F1FB6A23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494ACE0B-6171-134E-A53A-49AC39B0EB30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="112">
   <si>
     <t>樓層</t>
   </si>
@@ -494,6 +494,10 @@
     <t>B1-1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -668,9 +672,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,33 +690,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2" xr:uid="{4D9C1292-1868-8540-8FF2-FE31BB41D142}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1103,32 +1087,32 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="8"/>
+      <c r="S1" s="14"/>
       <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
@@ -26779,7 +26763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26811,32 +26795,32 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="8"/>
+      <c r="S1" s="14"/>
       <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
@@ -55053,10 +55037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -55068,19 +55052,19 @@
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I1" s="2"/>
@@ -55105,28 +55089,28 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="D2" s="12" t="str">
         <f>K2</f>
         <v>B1-1</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="13" t="str">
         <f>IF(H2="",L2,H2)</f>
         <v>B1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="str">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="str">
         <f>IF(G2="","-",G2&amp;"-"&amp;C2)</f>
         <v>-</v>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J2" s="10" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>RF-B1</v>
       </c>
-      <c r="K2" s="11" t="str">
+      <c r="K2" s="10" t="str">
         <f>IF(F2="",VLOOKUP(I2,J:K,2,FALSE),F2)</f>
         <v>B1-1</v>
       </c>
@@ -55150,28 +55134,28 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D3" s="12" t="str">
         <f t="shared" ref="D3:D4" si="0">K3</f>
         <v>B1-1</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="13" t="str">
         <f t="shared" ref="E3:E4" si="1">IF(H3="",L3,H3)</f>
         <v>B1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="str">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="str">
         <f t="shared" ref="I3:I4" si="2">IF(G3="","-",G3&amp;"-"&amp;C3)</f>
         <v>-</v>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="10" t="str">
         <f t="shared" ref="J3:J4" si="3">B3&amp;"-"&amp;C3</f>
         <v>3F-B1</v>
       </c>
-      <c r="K3" s="11" t="str">
+      <c r="K3" s="10" t="str">
         <f t="shared" ref="K3:K4" si="4">IF(F3="",VLOOKUP(I3,J:K,2,FALSE),F3)</f>
         <v>B1-1</v>
       </c>
@@ -55195,28 +55179,28 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="str">
+      <c r="D4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>B1-1</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="13" t="str">
         <f t="shared" si="1"/>
         <v>B1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11" t="str">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2F-B1</v>
       </c>
-      <c r="K4" s="11" t="str">
+      <c r="K4" s="10" t="str">
         <f t="shared" si="4"/>
         <v>B1-1</v>
       </c>
@@ -55229,6 +55213,11 @@
         <v/>
       </c>
       <c r="N4" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
